--- a/raw_data/20200818_saline/20200818_Sensor1_Test_77.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_77.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B546843-EC1C-46D2-9BD4-5C5C2F6D3D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>68586.835401</v>
+        <v>68586.835401000004</v>
       </c>
       <c r="B2" s="1">
-        <v>19.051899</v>
+        <v>19.051898999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>897.190000</v>
+        <v>897.19</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.428000</v>
+        <v>-202.428</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>68597.521202</v>
+        <v>68597.521202000004</v>
       </c>
       <c r="G2" s="1">
-        <v>19.054867</v>
+        <v>19.054867000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>915.834000</v>
+        <v>915.83399999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.899000</v>
+        <v>-171.899</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>68607.976868</v>
+        <v>68607.976867999998</v>
       </c>
       <c r="L2" s="1">
-        <v>19.057771</v>
+        <v>19.057770999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>941.074000</v>
+        <v>941.07399999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-122.311000</v>
+        <v>-122.31100000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>68618.289224</v>
+        <v>68618.289223999993</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.060636</v>
+        <v>19.060635999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.143000</v>
+        <v>948.14300000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.733000</v>
+        <v>-105.733</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>68628.502312</v>
+        <v>68628.502311999997</v>
       </c>
       <c r="V2" s="1">
-        <v>19.063473</v>
+        <v>19.063472999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>955.243000</v>
+        <v>955.24300000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.224400</v>
+        <v>-90.224400000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>68638.605836</v>
+        <v>68638.605836000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.066279</v>
+        <v>19.066279000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.642000</v>
+        <v>962.64200000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-78.104200</v>
+        <v>-78.104200000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>68648.872015</v>
+        <v>68648.872015000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.069131</v>
+        <v>19.069130999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.482000</v>
+        <v>967.48199999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.680700</v>
+        <v>-75.680700000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>68659.203221</v>
+        <v>68659.203221000003</v>
       </c>
       <c r="AK2" s="1">
         <v>19.072001</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.815000</v>
+        <v>974.81500000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.937400</v>
+        <v>-79.937399999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>68669.768467</v>
+        <v>68669.768467000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.074936</v>
+        <v>19.074936000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.930000</v>
+        <v>982.93</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.252700</v>
+        <v>-91.252700000000004</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>68680.787589</v>
@@ -616,43 +1032,43 @@
         <v>19.077997</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.848000</v>
+        <v>992.84799999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.675000</v>
+        <v>-108.675</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>68691.827045</v>
+        <v>68691.827044999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>19.081063</v>
       </c>
       <c r="BA2" s="1">
-        <v>1001.180000</v>
+        <v>1001.18</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.124000</v>
+        <v>-124.124</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>68702.864060</v>
+        <v>68702.864060000007</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.084129</v>
+        <v>19.084129000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.135000</v>
+        <v>-195.13499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>68713.908937</v>
@@ -661,195 +1077,195 @@
         <v>19.087197</v>
       </c>
       <c r="BK2" s="1">
-        <v>1107.300000</v>
+        <v>1107.3</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.689000</v>
+        <v>-309.68900000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>68725.043626</v>
+        <v>68725.043625999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.090290</v>
+        <v>19.09029</v>
       </c>
       <c r="BP2" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-488.896000</v>
+        <v>-488.89600000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>68736.063272</v>
+        <v>68736.063271999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.093351</v>
+        <v>19.093350999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.430000</v>
+        <v>1337.43</v>
       </c>
       <c r="BV2" s="1">
-        <v>-684.491000</v>
+        <v>-684.49099999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>68747.001516</v>
+        <v>68747.001516000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.096389</v>
+        <v>19.096388999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.910000</v>
+        <v>1471.91</v>
       </c>
       <c r="CA2" s="1">
-        <v>-891.806000</v>
+        <v>-891.80600000000004</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>68757.794463</v>
+        <v>68757.794462999998</v>
       </c>
       <c r="CD2" s="1">
         <v>19.099387</v>
       </c>
       <c r="CE2" s="1">
-        <v>1821.460000</v>
+        <v>1821.46</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1381.580000</v>
+        <v>-1381.58</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>68587.515904</v>
       </c>
       <c r="B3" s="1">
-        <v>19.052088</v>
+        <v>19.052088000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>897.312000</v>
+        <v>897.31200000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.543000</v>
+        <v>-202.54300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>68597.934205</v>
+        <v>68597.934204999998</v>
       </c>
       <c r="G3" s="1">
-        <v>19.054982</v>
+        <v>19.054981999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>915.840000</v>
+        <v>915.84</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.930000</v>
+        <v>-171.93</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>68608.422771</v>
+        <v>68608.422770999998</v>
       </c>
       <c r="L3" s="1">
-        <v>19.057895</v>
+        <v>19.057894999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>940.930000</v>
+        <v>940.93</v>
       </c>
       <c r="N3" s="1">
-        <v>-122.328000</v>
+        <v>-122.328</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>68618.645353</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.060735</v>
+        <v>19.060735000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>948.144000</v>
+        <v>948.14400000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.737000</v>
+        <v>-105.73699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>68628.877289</v>
+        <v>68628.877288999996</v>
       </c>
       <c r="V3" s="1">
-        <v>19.063577</v>
+        <v>19.063576999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>955.118000</v>
+        <v>955.11800000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.311900</v>
+        <v>-90.311899999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>68638.988266</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.066386</v>
+        <v>19.066386000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.656000</v>
+        <v>962.65599999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-78.089600</v>
+        <v>-78.089600000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>68649.288653</v>
+        <v>68649.288652999996</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.069247</v>
+        <v>19.069247000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.423000</v>
+        <v>967.423</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.552600</v>
+        <v>-75.552599999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>68659.617839</v>
+        <v>68659.617838999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.072116</v>
+        <v>19.072116000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.810000</v>
+        <v>974.81</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.938100</v>
+        <v>-79.938100000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>68670.200977</v>
@@ -858,6046 +1274,6047 @@
         <v>19.075056</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.933000</v>
+        <v>982.93299999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.243600</v>
+        <v>-91.243600000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>68681.152148</v>
+        <v>68681.152147999994</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.078098</v>
+        <v>19.078098000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.842000</v>
+        <v>992.84199999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.674000</v>
+        <v>-108.67400000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>68692.204533</v>
+        <v>68692.204532999996</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.081168</v>
+        <v>19.081168000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1001.180000</v>
+        <v>1001.18</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.104000</v>
+        <v>-124.104</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>68703.230601</v>
+        <v>68703.230601000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.084231</v>
+        <v>19.084230999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1040.110000</v>
+        <v>1040.1099999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.151000</v>
+        <v>-195.15100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>68714.673965</v>
+        <v>68714.673964999994</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.087409</v>
+        <v>19.087409000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1107.300000</v>
+        <v>1107.3</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.697000</v>
+        <v>-309.697</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>68725.471672</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.090409</v>
+        <v>19.090409000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1215.810000</v>
+        <v>1215.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-488.861000</v>
+        <v>-488.86099999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>68736.479911</v>
+        <v>68736.479911000002</v>
       </c>
       <c r="BT3" s="1">
         <v>19.093467</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.420000</v>
+        <v>1337.42</v>
       </c>
       <c r="BV3" s="1">
-        <v>-684.529000</v>
+        <v>-684.529</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>68747.396331</v>
+        <v>68747.396330999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.096499</v>
+        <v>19.096499000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.890000</v>
+        <v>1471.89</v>
       </c>
       <c r="CA3" s="1">
-        <v>-891.886000</v>
+        <v>-891.88599999999997</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>68758.386686</v>
+        <v>68758.386685999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.099552</v>
+        <v>19.099551999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1821.980000</v>
+        <v>1821.98</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1383.070000</v>
+        <v>-1383.07</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>68587.876991</v>
+        <v>68587.876990999997</v>
       </c>
       <c r="B4" s="1">
-        <v>19.052188</v>
+        <v>19.052188000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>897.234000</v>
+        <v>897.23400000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.534000</v>
+        <v>-202.53399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>68598.276609</v>
+        <v>68598.276608999993</v>
       </c>
       <c r="G4" s="1">
-        <v>19.055077</v>
+        <v>19.055077000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>916.140000</v>
+        <v>916.14</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.819000</v>
+        <v>-171.81899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>68608.768518</v>
+        <v>68608.768517999997</v>
       </c>
       <c r="L4" s="1">
-        <v>19.057991</v>
+        <v>19.057991000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>940.920000</v>
+        <v>940.92</v>
       </c>
       <c r="N4" s="1">
-        <v>-122.313000</v>
+        <v>-122.313</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>68618.993013</v>
+        <v>68618.993012999999</v>
       </c>
       <c r="Q4" s="1">
         <v>19.060831</v>
       </c>
       <c r="R4" s="1">
-        <v>948.167000</v>
+        <v>948.16700000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.742000</v>
+        <v>-105.742</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>68629.304840</v>
+        <v>68629.304839999997</v>
       </c>
       <c r="V4" s="1">
         <v>19.063696</v>
       </c>
       <c r="W4" s="1">
-        <v>955.174000</v>
+        <v>955.17399999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.304400</v>
+        <v>-90.304400000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>68639.411850</v>
+        <v>68639.411850000004</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.066503</v>
+        <v>19.066503000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.704000</v>
+        <v>962.70399999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-78.090700</v>
+        <v>-78.090699999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>68649.601630</v>
+        <v>68649.601630000005</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.069334</v>
+        <v>19.069334000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.478000</v>
+        <v>967.47799999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.437800</v>
+        <v>-75.437799999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>68659.968547</v>
+        <v>68659.968546999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.072213</v>
+        <v>19.072213000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.805000</v>
+        <v>974.80499999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.958000</v>
+        <v>-79.957999999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>68670.555121</v>
+        <v>68670.555120999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.075154</v>
+        <v>19.075154000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.917000</v>
+        <v>982.91700000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.247400</v>
+        <v>-91.247399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>68681.516706</v>
+        <v>68681.516705999995</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.078199</v>
+        <v>19.078199000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.828000</v>
+        <v>992.82799999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.669000</v>
+        <v>-108.669</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>68692.566127</v>
+        <v>68692.566126999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.081268</v>
+        <v>19.081268000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1001.150000</v>
+        <v>1001.15</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.135000</v>
+        <v>-124.13500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>68703.962661</v>
+        <v>68703.962660999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.084434</v>
+        <v>19.084434000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.150000</v>
+        <v>-195.15</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>68715.077510</v>
+        <v>68715.077510000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>19.087522</v>
       </c>
       <c r="BK4" s="1">
-        <v>1107.270000</v>
+        <v>1107.27</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.687000</v>
+        <v>-309.68700000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>68725.875912</v>
+        <v>68725.875912000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.090521</v>
+        <v>19.090520999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1215.830000</v>
+        <v>1215.83</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-488.894000</v>
+        <v>-488.89400000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>68736.894075</v>
+        <v>68736.894075000004</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.093582</v>
+        <v>19.093582000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.420000</v>
+        <v>1337.42</v>
       </c>
       <c r="BV4" s="1">
-        <v>-684.531000</v>
+        <v>-684.53099999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>68748.132395</v>
+        <v>68748.132394999993</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.096703</v>
+        <v>19.096703000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.940000</v>
+        <v>1471.94</v>
       </c>
       <c r="CA4" s="1">
-        <v>-891.734000</v>
+        <v>-891.73400000000004</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>68759.242321</v>
+        <v>68759.242320999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.099790</v>
+        <v>19.099789999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1821.080000</v>
+        <v>1821.08</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1381.900000</v>
+        <v>-1381.9</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>68588.220222</v>
+        <v>68588.220222000004</v>
       </c>
       <c r="B5" s="1">
-        <v>19.052283</v>
+        <v>19.052282999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>897.222000</v>
+        <v>897.22199999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.581000</v>
+        <v>-202.58099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>68598.624305</v>
+        <v>68598.624305000005</v>
       </c>
       <c r="G5" s="1">
         <v>19.055173</v>
       </c>
       <c r="H5" s="1">
-        <v>915.981000</v>
+        <v>915.98099999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.721000</v>
+        <v>-171.721</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>68609.192066</v>
+        <v>68609.192066000003</v>
       </c>
       <c r="L5" s="1">
-        <v>19.058109</v>
+        <v>19.058109000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>940.834000</v>
+        <v>940.83399999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-122.286000</v>
+        <v>-122.286</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>68619.414612</v>
+        <v>68619.414611999993</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.060949</v>
+        <v>19.060949000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>948.163000</v>
+        <v>948.16300000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.761000</v>
+        <v>-105.761</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>68629.566728</v>
+        <v>68629.566728000005</v>
       </c>
       <c r="V5" s="1">
-        <v>19.063769</v>
+        <v>19.063769000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>955.208000</v>
+        <v>955.20799999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.201900</v>
+        <v>-90.201899999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>68639.706970</v>
+        <v>68639.706969999999</v>
       </c>
       <c r="AA5" s="1">
         <v>19.066585</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.704000</v>
+        <v>962.70399999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-78.143200</v>
+        <v>-78.143199999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>68649.942913</v>
+        <v>68649.942913000006</v>
       </c>
       <c r="AF5" s="1">
         <v>19.069429</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.448000</v>
+        <v>967.44799999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.560600</v>
+        <v>-75.560599999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>68660.315214</v>
+        <v>68660.315214000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.072310</v>
+        <v>19.072310000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.789000</v>
+        <v>974.78899999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.935700</v>
+        <v>-79.935699999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>68670.918720</v>
+        <v>68670.918720000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.075255</v>
+        <v>19.075254999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.938000</v>
+        <v>982.93799999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.254200</v>
+        <v>-91.254199999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>68682.246850</v>
+        <v>68682.246849999996</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.078402</v>
+        <v>19.078402000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.863000</v>
+        <v>992.86300000000006</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.691000</v>
+        <v>-108.691</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>68693.288260</v>
+        <v>68693.288260000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.081469</v>
+        <v>19.081468999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.124000</v>
+        <v>-124.124</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>68704.351526</v>
+        <v>68704.351525999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.084542</v>
+        <v>19.084541999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1040.140000</v>
+        <v>1040.1400000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.163000</v>
+        <v>-195.16300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>68715.450998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.087625</v>
+        <v>19.087624999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1107.310000</v>
+        <v>1107.31</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.701000</v>
+        <v>-309.70100000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>68726.270727</v>
+        <v>68726.270726999996</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.090631</v>
+        <v>19.090630999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1215.790000</v>
+        <v>1215.79</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-488.933000</v>
+        <v>-488.93299999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>68737.632584</v>
+        <v>68737.632584000006</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.093787</v>
+        <v>19.093786999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.370000</v>
+        <v>1337.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-684.579000</v>
+        <v>-684.57899999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>68748.253419</v>
+        <v>68748.253419000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.096737</v>
+        <v>19.096737000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.800000</v>
+        <v>1471.8</v>
       </c>
       <c r="CA5" s="1">
-        <v>-891.850000</v>
+        <v>-891.85</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>68759.464491</v>
+        <v>68759.464491000006</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.099851</v>
+        <v>19.099851000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1821.300000</v>
+        <v>1821.3</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1381.850000</v>
+        <v>-1381.85</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>68588.561471</v>
+        <v>68588.561470999994</v>
       </c>
       <c r="B6" s="1">
-        <v>19.052378</v>
+        <v>19.052378000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>897.290000</v>
+        <v>897.29</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.539000</v>
+        <v>-202.53899999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>68599.060820</v>
+        <v>68599.060819999999</v>
       </c>
       <c r="G6" s="1">
-        <v>19.055295</v>
+        <v>19.055295000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>916.139000</v>
+        <v>916.13900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.923000</v>
+        <v>-171.923</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>68609.472305</v>
+        <v>68609.472305000003</v>
       </c>
       <c r="L6" s="1">
         <v>19.058187</v>
       </c>
       <c r="M6" s="1">
-        <v>940.869000</v>
+        <v>940.86900000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-122.401000</v>
+        <v>-122.401</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>68619.706260</v>
+        <v>68619.706260000006</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.061030</v>
+        <v>19.061029999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>948.157000</v>
+        <v>948.15700000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.775000</v>
+        <v>-105.77500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>68629.908007</v>
+        <v>68629.908007000005</v>
       </c>
       <c r="V6" s="1">
-        <v>19.063863</v>
+        <v>19.063863000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>955.032000</v>
+        <v>955.03200000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.236400</v>
+        <v>-90.236400000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>68640.055166</v>
+        <v>68640.055166000006</v>
       </c>
       <c r="AA6" s="1">
         <v>19.066682</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.633000</v>
+        <v>962.63300000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-78.124000</v>
+        <v>-78.123999999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>68650.287134</v>
+        <v>68650.287133999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.069524</v>
+        <v>19.069524000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.653000</v>
+        <v>967.65300000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.684300</v>
+        <v>-75.684299999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>68660.980351</v>
+        <v>68660.980351000006</v>
       </c>
       <c r="AK6" s="1">
         <v>19.072495</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.787000</v>
+        <v>974.78700000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.932700</v>
+        <v>-79.932699999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>68671.640368</v>
+        <v>68671.640367999993</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.075456</v>
+        <v>19.075455999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.927000</v>
+        <v>982.92700000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.241900</v>
+        <v>-91.241900000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>68682.610389</v>
+        <v>68682.610388999994</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.078503</v>
+        <v>19.078503000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.852000</v>
+        <v>992.85199999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.689000</v>
+        <v>-108.68899999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>68693.663732</v>
+        <v>68693.663732000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.081573</v>
+        <v>19.081572999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1001.180000</v>
+        <v>1001.18</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.101000</v>
+        <v>-124.101</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>68704.710669</v>
+        <v>68704.710668999993</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.084642</v>
+        <v>19.084641999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1040.130000</v>
+        <v>1040.1300000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.157000</v>
+        <v>-195.15700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>68716.138489</v>
+        <v>68716.138489000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>19.087816</v>
       </c>
       <c r="BK6" s="1">
-        <v>1107.290000</v>
+        <v>1107.29</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.713000</v>
+        <v>-309.71300000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>68726.992902</v>
+        <v>68726.992901999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.090831</v>
+        <v>19.090831000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-488.939000</v>
+        <v>-488.93900000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>68737.752151</v>
+        <v>68737.752150999993</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.093820</v>
+        <v>19.093820000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.380000</v>
+        <v>1337.38</v>
       </c>
       <c r="BV6" s="1">
-        <v>-684.570000</v>
+        <v>-684.57</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>68748.680473</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.096856</v>
+        <v>19.096855999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.880000</v>
+        <v>1471.88</v>
       </c>
       <c r="CA6" s="1">
-        <v>-891.881000</v>
+        <v>-891.88099999999997</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>68759.984331</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.099996</v>
+        <v>19.099996000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1821.670000</v>
+        <v>1821.67</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1383.000000</v>
+        <v>-1383</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>68588.990509</v>
+        <v>68588.990508999996</v>
       </c>
       <c r="B7" s="1">
-        <v>19.052497</v>
+        <v>19.052496999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>897.200000</v>
+        <v>897.2</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.408000</v>
+        <v>-202.40799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>68599.318704</v>
+        <v>68599.318704000005</v>
       </c>
       <c r="G7" s="1">
-        <v>19.055366</v>
+        <v>19.055365999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>916.167000</v>
+        <v>916.16700000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.674000</v>
+        <v>-171.67400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>68609.817521</v>
+        <v>68609.817521000004</v>
       </c>
       <c r="L7" s="1">
-        <v>19.058283</v>
+        <v>19.058282999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>940.989000</v>
+        <v>940.98900000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-122.359000</v>
+        <v>-122.35899999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>68620.053495</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.061126</v>
+        <v>19.061126000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>948.120000</v>
+        <v>948.12</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.815000</v>
+        <v>-105.815</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>68630.253686</v>
+        <v>68630.253685999996</v>
       </c>
       <c r="V7" s="1">
-        <v>19.063959</v>
+        <v>19.063959000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>955.151000</v>
+        <v>955.15099999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.326200</v>
+        <v>-90.3262</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>68640.405342</v>
+        <v>68640.405341999998</v>
       </c>
       <c r="AA7" s="1">
         <v>19.066779</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.681000</v>
+        <v>962.68100000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-78.103100</v>
+        <v>-78.103099999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>68651.190843</v>
+        <v>68651.190843000004</v>
       </c>
       <c r="AF7" s="1">
         <v>19.069775</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.475000</v>
+        <v>967.47500000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.602600</v>
+        <v>-75.602599999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>68661.363757</v>
+        <v>68661.363756999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.072601</v>
+        <v>19.072600999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.811000</v>
+        <v>974.81100000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.927000</v>
+        <v>-79.927000000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>68671.997023</v>
+        <v>68671.997023000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.075555</v>
+        <v>19.075555000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.938000</v>
+        <v>982.93799999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.242600</v>
+        <v>-91.242599999999996</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>68682.974946</v>
+        <v>68682.974946000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.078604</v>
+        <v>19.078603999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.830000</v>
+        <v>992.83</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.667000</v>
+        <v>-108.667</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>68694.045154</v>
+        <v>68694.045154000007</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.081679</v>
+        <v>19.081679000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.120000</v>
+        <v>-124.12</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>68705.382211</v>
+        <v>68705.382211000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.084828</v>
+        <v>19.084828000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.158000</v>
+        <v>-195.15799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>68716.609193</v>
+        <v>68716.609192999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>19.087947</v>
       </c>
       <c r="BK7" s="1">
-        <v>1107.310000</v>
+        <v>1107.31</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.724000</v>
+        <v>-309.72399999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>68727.107974</v>
+        <v>68727.107973999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.090863</v>
+        <v>19.090862999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-488.927000</v>
+        <v>-488.92700000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>68738.165784</v>
+        <v>68738.165783999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.093935</v>
+        <v>19.093934999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1337.370000</v>
+        <v>1337.37</v>
       </c>
       <c r="BV7" s="1">
-        <v>-684.592000</v>
+        <v>-684.59199999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>68749.098601</v>
+        <v>68749.098601000005</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.096972</v>
+        <v>19.096972000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.940000</v>
+        <v>1471.94</v>
       </c>
       <c r="CA7" s="1">
-        <v>-891.866000</v>
+        <v>-891.86599999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>68760.502157</v>
+        <v>68760.502156999995</v>
       </c>
       <c r="CD7" s="1">
-        <v>19.100139</v>
+        <v>19.100138999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1821.560000</v>
+        <v>1821.56</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1382.570000</v>
+        <v>-1382.57</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>68589.252428</v>
+        <v>68589.252428000007</v>
       </c>
       <c r="B8" s="1">
-        <v>19.052570</v>
+        <v>19.052569999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>897.264000</v>
+        <v>897.26400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.443000</v>
+        <v>-202.44300000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>68599.661438</v>
+        <v>68599.661437999996</v>
       </c>
       <c r="G8" s="1">
-        <v>19.055462</v>
+        <v>19.055461999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.160000</v>
+        <v>916.16</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.543000</v>
+        <v>-171.54300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>68610.163233</v>
+        <v>68610.163232999999</v>
       </c>
       <c r="L8" s="1">
-        <v>19.058379</v>
+        <v>19.058378999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.953000</v>
+        <v>940.95299999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-122.338000</v>
+        <v>-122.33799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>68620.404664</v>
+        <v>68620.404664000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.061224</v>
+        <v>19.061223999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>948.145000</v>
+        <v>948.14499999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.718000</v>
+        <v>-105.718</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>68630.938661</v>
+        <v>68630.938660999993</v>
       </c>
       <c r="V8" s="1">
-        <v>19.064150</v>
+        <v>19.064150000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>955.130000</v>
+        <v>955.13</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.241800</v>
+        <v>-90.241799999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>68641.102183</v>
+        <v>68641.102182999995</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.066973</v>
+        <v>19.066973000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.676000</v>
+        <v>962.67600000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-78.127700</v>
+        <v>-78.127700000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>68651.539534</v>
+        <v>68651.539533999996</v>
       </c>
       <c r="AF8" s="1">
         <v>19.069872</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.587000</v>
+        <v>967.58699999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.647800</v>
+        <v>-75.647800000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>68661.711807</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.072698</v>
+        <v>19.072697999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.834000</v>
+        <v>974.83399999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.949900</v>
+        <v>-79.9499</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>68672.360978</v>
+        <v>68672.360977999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.075656</v>
+        <v>19.075655999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.939000</v>
+        <v>982.93899999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.231300</v>
+        <v>-91.231300000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>68683.662897</v>
+        <v>68683.662897000002</v>
       </c>
       <c r="AU8" s="1">
         <v>19.078795</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.830000</v>
+        <v>992.83</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.675000</v>
+        <v>-108.675</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>68694.708305</v>
+        <v>68694.708304999993</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.081863</v>
+        <v>19.081862999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1001.150000</v>
+        <v>1001.15</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.126000</v>
+        <v>-124.126</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>68705.831090</v>
+        <v>68705.831090000007</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.084953</v>
+        <v>19.084952999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.139000</v>
+        <v>-195.13900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>68716.997028</v>
+        <v>68716.997027999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.088055</v>
+        <v>19.088055000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1107.320000</v>
+        <v>1107.32</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.704000</v>
+        <v>-309.70400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>68727.507750</v>
+        <v>68727.507750000004</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.090974</v>
+        <v>19.090973999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1215.830000</v>
+        <v>1215.83</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-488.942000</v>
+        <v>-488.94200000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>68738.594359</v>
+        <v>68738.594358999995</v>
       </c>
       <c r="BT8" s="1">
         <v>19.094054</v>
       </c>
       <c r="BU8" s="1">
-        <v>1337.380000</v>
+        <v>1337.38</v>
       </c>
       <c r="BV8" s="1">
-        <v>-684.610000</v>
+        <v>-684.61</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>68749.545001</v>
+        <v>68749.545001000006</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.097096</v>
+        <v>19.097096000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.940000</v>
+        <v>1471.94</v>
       </c>
       <c r="CA8" s="1">
-        <v>-891.831000</v>
+        <v>-891.83100000000002</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>68761.056649</v>
+        <v>68761.056649000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.100294</v>
+        <v>19.100294000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1821.200000</v>
+        <v>1821.2</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1381.890000</v>
+        <v>-1381.89</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>68589.595173</v>
+        <v>68589.595172999994</v>
       </c>
       <c r="B9" s="1">
-        <v>19.052665</v>
+        <v>19.052665000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>897.302000</v>
+        <v>897.30200000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.493000</v>
+        <v>-202.49299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>68600.008639</v>
+        <v>68600.008639000007</v>
       </c>
       <c r="G9" s="1">
-        <v>19.055558</v>
+        <v>19.055558000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>916.133000</v>
+        <v>916.13300000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-172.105000</v>
+        <v>-172.10499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>68610.858658</v>
+        <v>68610.858657999997</v>
       </c>
       <c r="L9" s="1">
-        <v>19.058572</v>
+        <v>19.058572000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>940.780000</v>
+        <v>940.78</v>
       </c>
       <c r="N9" s="1">
-        <v>-122.437000</v>
+        <v>-122.437</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>68621.101010</v>
+        <v>68621.101009999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.061417</v>
+        <v>19.061416999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.156000</v>
+        <v>948.15599999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.716000</v>
+        <v>-105.71599999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>68631.282885</v>
+        <v>68631.282884999993</v>
       </c>
       <c r="V9" s="1">
         <v>19.064245</v>
       </c>
       <c r="W9" s="1">
-        <v>955.324000</v>
+        <v>955.32399999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.276000</v>
+        <v>-90.275999999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>68641.452856</v>
+        <v>68641.452856000004</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.067070</v>
+        <v>19.067070000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.742000</v>
+        <v>962.74199999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-78.100300</v>
+        <v>-78.100300000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>68651.884249</v>
+        <v>68651.884248999995</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.069968</v>
+        <v>19.069967999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.500000</v>
+        <v>967.5</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.540300</v>
+        <v>-75.540300000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>68662.359229</v>
+        <v>68662.359228999994</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.072878</v>
+        <v>19.072877999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.818000</v>
+        <v>974.81799999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.937900</v>
+        <v>-79.937899999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>68673.033171</v>
+        <v>68673.033171000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.075843</v>
+        <v>19.075842999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.931000</v>
+        <v>982.93100000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.255100</v>
+        <v>-91.255099999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>68684.069647</v>
+        <v>68684.069646999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.078908</v>
+        <v>19.078907999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.850000</v>
+        <v>992.85</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.684000</v>
+        <v>-108.684</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>68695.125442</v>
+        <v>68695.125442000004</v>
       </c>
       <c r="AZ9" s="1">
         <v>19.081979</v>
       </c>
       <c r="BA9" s="1">
-        <v>1001.150000</v>
+        <v>1001.15</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.125000</v>
+        <v>-124.125</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>68706.189724</v>
+        <v>68706.189723999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.085053</v>
+        <v>19.085052999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1040.120000</v>
+        <v>1040.1199999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.162000</v>
+        <v>-195.16200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>68717.371012</v>
+        <v>68717.371012000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.088159</v>
+        <v>19.088159000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1107.280000</v>
+        <v>1107.28</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.705000</v>
+        <v>-309.70499999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>68727.910005</v>
+        <v>68727.910004999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.091086</v>
+        <v>19.091086000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-488.929000</v>
+        <v>-488.92899999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>68739.013480</v>
+        <v>68739.013479999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.094170</v>
+        <v>19.094169999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.420000</v>
+        <v>1337.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-684.568000</v>
+        <v>-684.56799999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>68749.968088</v>
+        <v>68749.968087999994</v>
       </c>
       <c r="BY9" s="1">
         <v>19.097213</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.980000</v>
+        <v>1471.98</v>
       </c>
       <c r="CA9" s="1">
-        <v>-891.827000</v>
+        <v>-891.827</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>68761.585384</v>
+        <v>68761.585384000005</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.100440</v>
+        <v>19.100439999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1821.780000</v>
+        <v>1821.78</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1383.100000</v>
+        <v>-1383.1</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>68589.935110</v>
+        <v>68589.935110000006</v>
       </c>
       <c r="B10" s="1">
-        <v>19.052760</v>
+        <v>19.052759999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>897.161000</v>
+        <v>897.16099999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.536000</v>
+        <v>-202.536</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>68600.694606</v>
+        <v>68600.694606000005</v>
       </c>
       <c r="G10" s="1">
-        <v>19.055749</v>
+        <v>19.055748999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>915.935000</v>
+        <v>915.93499999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.597000</v>
+        <v>-171.59700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>68611.206848</v>
+        <v>68611.206848000002</v>
       </c>
       <c r="L10" s="1">
-        <v>19.058669</v>
+        <v>19.058668999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>940.892000</v>
+        <v>940.89200000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-122.450000</v>
+        <v>-122.45</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>68621.449697</v>
+        <v>68621.449697000004</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.061514</v>
+        <v>19.061513999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>948.185000</v>
+        <v>948.18499999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.708000</v>
+        <v>-105.708</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>68631.630580</v>
+        <v>68631.630579999997</v>
       </c>
       <c r="V10" s="1">
         <v>19.064342</v>
       </c>
       <c r="W10" s="1">
-        <v>955.245000</v>
+        <v>955.245</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.199800</v>
+        <v>-90.199799999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>68641.802075</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.067167</v>
+        <v>19.067167000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.647000</v>
+        <v>962.64700000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-78.039100</v>
+        <v>-78.039100000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>68652.534970</v>
+        <v>68652.534969999993</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.070149</v>
+        <v>19.070149000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.449000</v>
+        <v>967.44899999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.547000</v>
+        <v>-75.546999999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>68662.755563</v>
+        <v>68662.755562999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.072988</v>
+        <v>19.072987999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.818000</v>
+        <v>974.81799999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.937000</v>
+        <v>-79.936999999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>68673.467630</v>
+        <v>68673.467629999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.075963</v>
+        <v>19.075963000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.917000</v>
+        <v>982.91700000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.250400</v>
+        <v>-91.250399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>68684.431231</v>
+        <v>68684.431230999995</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.079009</v>
+        <v>19.079008999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.850000</v>
+        <v>992.85</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.679000</v>
+        <v>-108.679</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>68695.500947</v>
+        <v>68695.500946999993</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.082084</v>
+        <v>19.082083999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1001.170000</v>
+        <v>1001.17</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.153000</v>
+        <v>-124.15300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>68706.553267</v>
+        <v>68706.553266999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.085154</v>
+        <v>19.085153999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1040.130000</v>
+        <v>1040.1300000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.144000</v>
+        <v>-195.14400000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>68717.782196</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.088273</v>
+        <v>19.088273000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1107.310000</v>
+        <v>1107.31</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.713000</v>
+        <v>-309.71300000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>68728.333588</v>
+        <v>68728.333587999994</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.091204</v>
+        <v>19.091204000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.790000</v>
+        <v>1215.79</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-488.926000</v>
+        <v>-488.92599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>68739.421159</v>
+        <v>68739.421159000005</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.094284</v>
+        <v>19.094283999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.390000</v>
+        <v>1337.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-684.536000</v>
+        <v>-684.53599999999994</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>68750.392169</v>
+        <v>68750.392168999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.097331</v>
+        <v>19.097331000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.960000</v>
+        <v>1471.96</v>
       </c>
       <c r="CA10" s="1">
-        <v>-891.820000</v>
+        <v>-891.82</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>68762.101753</v>
+        <v>68762.101752999995</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.100584</v>
+        <v>19.100584000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1821.470000</v>
+        <v>1821.47</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1382.700000</v>
+        <v>-1382.7</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>68590.664539</v>
+        <v>68590.664539000005</v>
       </c>
       <c r="B11" s="1">
-        <v>19.052962</v>
+        <v>19.052962000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>897.279000</v>
+        <v>897.279</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.419000</v>
+        <v>-202.41900000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>68601.038334</v>
+        <v>68601.038333999997</v>
       </c>
       <c r="G11" s="1">
         <v>19.055844</v>
       </c>
       <c r="H11" s="1">
-        <v>916.109000</v>
+        <v>916.10900000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.527000</v>
+        <v>-171.52699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>68611.553519</v>
+        <v>68611.553518999994</v>
       </c>
       <c r="L11" s="1">
-        <v>19.058765</v>
+        <v>19.058765000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.921000</v>
+        <v>940.92100000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-122.238000</v>
+        <v>-122.238</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>68621.798744</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.061611</v>
+        <v>19.061610999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>948.182000</v>
+        <v>948.18200000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.787000</v>
+        <v>-105.78700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>68632.274425</v>
+        <v>68632.274424999996</v>
       </c>
       <c r="V11" s="1">
-        <v>19.064521</v>
+        <v>19.064520999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.174000</v>
+        <v>955.17399999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.337800</v>
+        <v>-90.337800000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>68642.457255</v>
+        <v>68642.457255000001</v>
       </c>
       <c r="AA11" s="1">
         <v>19.067349</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.677000</v>
+        <v>962.67700000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-78.130600</v>
+        <v>-78.130600000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>68652.917881</v>
+        <v>68652.917881000001</v>
       </c>
       <c r="AF11" s="1">
         <v>19.070255</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.473000</v>
+        <v>967.47299999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.569700</v>
+        <v>-75.569699999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>68663.103723</v>
+        <v>68663.103722999993</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.073084</v>
+        <v>19.073084000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.791000</v>
+        <v>974.79100000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.938100</v>
+        <v>-79.938100000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>68673.828220</v>
+        <v>68673.828219999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.076063</v>
+        <v>19.076063000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.934000</v>
+        <v>982.93399999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.232800</v>
+        <v>-91.232799999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>68684.798734</v>
+        <v>68684.798733999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.079111</v>
+        <v>19.079111000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.834000</v>
+        <v>992.83399999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.657000</v>
+        <v>-108.657</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>68695.929951</v>
+        <v>68695.929950999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>19.082203</v>
       </c>
       <c r="BA11" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.124000</v>
+        <v>-124.124</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>68706.983329</v>
+        <v>68706.983328999995</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.085273</v>
+        <v>19.085273000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.162000</v>
+        <v>-195.16200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>68718.122486</v>
+        <v>68718.122485999993</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.088367</v>
+        <v>19.088367000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1107.300000</v>
+        <v>1107.3</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.680000</v>
+        <v>-309.68</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>68728.726917</v>
+        <v>68728.726917000007</v>
       </c>
       <c r="BO11" s="1">
         <v>19.091313</v>
       </c>
       <c r="BP11" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-488.972000</v>
+        <v>-488.97199999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>68739.838817</v>
+        <v>68739.838816999996</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.094400</v>
+        <v>19.0944</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.400000</v>
+        <v>1337.4</v>
       </c>
       <c r="BV11" s="1">
-        <v>-684.579000</v>
+        <v>-684.57899999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>68750.841046</v>
+        <v>68750.841046000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.097456</v>
+        <v>19.097456000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.910000</v>
+        <v>1471.91</v>
       </c>
       <c r="CA11" s="1">
-        <v>-891.943000</v>
+        <v>-891.94299999999998</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>68762.656247</v>
+        <v>68762.656247000006</v>
       </c>
       <c r="CD11" s="1">
         <v>19.100738</v>
       </c>
       <c r="CE11" s="1">
-        <v>1821.000000</v>
+        <v>1821</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1381.930000</v>
+        <v>-1381.93</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>68590.961644</v>
+        <v>68590.961643999995</v>
       </c>
       <c r="B12" s="1">
-        <v>19.053045</v>
+        <v>19.053045000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>897.272000</v>
+        <v>897.27200000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.542000</v>
+        <v>-202.542</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>68601.383946</v>
+        <v>68601.383946000002</v>
       </c>
       <c r="G12" s="1">
-        <v>19.055940</v>
+        <v>19.05594</v>
       </c>
       <c r="H12" s="1">
-        <v>916.220000</v>
+        <v>916.22</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.878000</v>
+        <v>-171.87799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>68612.203807</v>
+        <v>68612.203806999998</v>
       </c>
       <c r="L12" s="1">
-        <v>19.058946</v>
+        <v>19.058945999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>940.931000</v>
+        <v>940.93100000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-122.469000</v>
+        <v>-122.46899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>68622.450624</v>
+        <v>68622.450624000005</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.061792</v>
+        <v>19.061792000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.117000</v>
+        <v>948.11699999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.809000</v>
+        <v>-105.809</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>68632.661795</v>
+        <v>68632.661795000007</v>
       </c>
       <c r="V12" s="1">
-        <v>19.064628</v>
+        <v>19.064627999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.212000</v>
+        <v>955.21199999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.246800</v>
+        <v>-90.246799999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>68642.845168</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.067457</v>
+        <v>19.067457000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.639000</v>
+        <v>962.63900000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-78.121600</v>
+        <v>-78.121600000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>68653.266103</v>
+        <v>68653.266103000002</v>
       </c>
       <c r="AF12" s="1">
         <v>19.070352</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.604000</v>
+        <v>967.60400000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.539500</v>
+        <v>-75.539500000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>68663.452446</v>
+        <v>68663.452445999996</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.073181</v>
+        <v>19.073181000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.800000</v>
+        <v>974.8</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.950500</v>
+        <v>-79.950500000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>68674.188848</v>
+        <v>68674.188848000005</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.076164</v>
+        <v>19.076163999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.950000</v>
+        <v>982.95</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.259800</v>
+        <v>-91.259799999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>68685.216367</v>
+        <v>68685.216367000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.079227</v>
+        <v>19.079226999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.847000</v>
+        <v>992.84699999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.660000</v>
+        <v>-108.66</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>68696.253849</v>
+        <v>68696.253849000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>19.082293</v>
       </c>
       <c r="BA12" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.118000</v>
+        <v>-124.11799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>68707.273953</v>
+        <v>68707.273952999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.085354</v>
+        <v>19.085353999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1040.130000</v>
+        <v>1040.1300000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.146000</v>
+        <v>-195.14599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>68718.506849</v>
+        <v>68718.506848999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.088474</v>
+        <v>19.088474000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1107.290000</v>
+        <v>1107.29</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.710000</v>
+        <v>-309.70999999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>68729.146531</v>
+        <v>68729.146531000006</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.091430</v>
+        <v>19.091429999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.780000</v>
+        <v>1215.78</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-488.931000</v>
+        <v>-488.93099999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>68740.254792</v>
+        <v>68740.254792000007</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.094515</v>
+        <v>19.094515000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.340000</v>
+        <v>1337.34</v>
       </c>
       <c r="BV12" s="1">
-        <v>-684.562000</v>
+        <v>-684.56200000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>68751.267606</v>
+        <v>68751.267605999994</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.097574</v>
+        <v>19.097574000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.940000</v>
+        <v>1471.94</v>
       </c>
       <c r="CA12" s="1">
-        <v>-891.785000</v>
+        <v>-891.78499999999997</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>68763.186158</v>
+        <v>68763.186157999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.100885</v>
+        <v>19.100885000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1821.770000</v>
+        <v>1821.77</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1382.980000</v>
+        <v>-1382.98</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>68591.623770</v>
+        <v>68591.623770000006</v>
       </c>
       <c r="B13" s="1">
-        <v>19.053229</v>
+        <v>19.053229000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>897.302000</v>
+        <v>897.30200000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.455000</v>
+        <v>-202.45500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>68602.046205</v>
+        <v>68602.046205000006</v>
       </c>
       <c r="G13" s="1">
-        <v>19.056124</v>
+        <v>19.056124000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>916.073000</v>
+        <v>916.07299999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.844000</v>
+        <v>-171.84399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>68612.587677</v>
+        <v>68612.587677000003</v>
       </c>
       <c r="L13" s="1">
-        <v>19.059052</v>
+        <v>19.059052000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.105000</v>
+        <v>941.10500000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-122.313000</v>
+        <v>-122.313</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>68622.843456</v>
+        <v>68622.843456000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.061901</v>
+        <v>19.061900999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>948.117000</v>
+        <v>948.11699999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.752000</v>
+        <v>-105.752</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>68633.004003</v>
+        <v>68633.004002999995</v>
       </c>
       <c r="V13" s="1">
-        <v>19.064723</v>
+        <v>19.064723000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>955.156000</v>
+        <v>955.15599999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.265700</v>
+        <v>-90.265699999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>68643.193814</v>
+        <v>68643.193813999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.067554</v>
+        <v>19.067554000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.696000</v>
+        <v>962.69600000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-78.158800</v>
+        <v>-78.158799999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>68653.610793</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.070447</v>
+        <v>19.070447000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.508000</v>
+        <v>967.50800000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.556100</v>
+        <v>-75.556100000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>68663.867067</v>
+        <v>68663.867066999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.073296</v>
+        <v>19.073295999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.798000</v>
+        <v>974.798</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.931100</v>
+        <v>-79.931100000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>68674.614381</v>
+        <v>68674.614381000007</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.076282</v>
+        <v>19.076281999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.940000</v>
+        <v>982.94</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.248400</v>
+        <v>-91.248400000000004</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>68685.527389</v>
+        <v>68685.527388999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.079313</v>
+        <v>19.079312999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.849000</v>
+        <v>992.84900000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.676000</v>
+        <v>-108.676</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>68696.613477</v>
+        <v>68696.613477000006</v>
       </c>
       <c r="AZ13" s="1">
         <v>19.082393</v>
       </c>
       <c r="BA13" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.108000</v>
+        <v>-124.108</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>68707.634582</v>
+        <v>68707.634581999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.085454</v>
+        <v>19.085453999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1040.130000</v>
+        <v>1040.1300000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.156000</v>
+        <v>-195.15600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>68718.896707</v>
+        <v>68718.896707000007</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.088582</v>
+        <v>19.088581999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1107.320000</v>
+        <v>1107.32</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.725000</v>
+        <v>-309.72500000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>68729.544819</v>
+        <v>68729.544819000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.091540</v>
+        <v>19.091539999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1215.780000</v>
+        <v>1215.78</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-488.931000</v>
+        <v>-488.93099999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>68740.669620</v>
+        <v>68740.669620000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.094630</v>
+        <v>19.094629999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1337.380000</v>
+        <v>1337.38</v>
       </c>
       <c r="BV13" s="1">
-        <v>-684.572000</v>
+        <v>-684.572</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>68751.692183</v>
+        <v>68751.692183000006</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.097692</v>
+        <v>19.097691999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="CA13" s="1">
-        <v>-891.838000</v>
+        <v>-891.83799999999997</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>68763.703798</v>
+        <v>68763.703798000002</v>
       </c>
       <c r="CD13" s="1">
         <v>19.101029</v>
       </c>
       <c r="CE13" s="1">
-        <v>1822.500000</v>
+        <v>1822.5</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1382.290000</v>
+        <v>-1382.29</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>68591.989322</v>
+        <v>68591.989321999994</v>
       </c>
       <c r="B14" s="1">
-        <v>19.053330</v>
+        <v>19.053329999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>897.320000</v>
+        <v>897.32</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.586000</v>
+        <v>-202.58600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>68602.419227</v>
+        <v>68602.419227000006</v>
       </c>
       <c r="G14" s="1">
-        <v>19.056228</v>
+        <v>19.056228000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>915.318000</v>
+        <v>915.31799999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.621000</v>
+        <v>-171.62100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>68612.936861</v>
+        <v>68612.936860999995</v>
       </c>
       <c r="L14" s="1">
-        <v>19.059149</v>
+        <v>19.059149000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>940.897000</v>
+        <v>940.89700000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-122.349000</v>
+        <v>-122.349</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>68623.192641</v>
+        <v>68623.192641000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.061998</v>
+        <v>19.061997999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.140000</v>
+        <v>948.14</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.755000</v>
+        <v>-105.755</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>68633.349715</v>
+        <v>68633.349715000004</v>
       </c>
       <c r="V14" s="1">
         <v>19.064819</v>
       </c>
       <c r="W14" s="1">
-        <v>955.161000</v>
+        <v>955.16099999999994</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.295000</v>
+        <v>-90.295000000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>68643.643188</v>
+        <v>68643.643188000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.067679</v>
+        <v>19.067678999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.755000</v>
+        <v>962.755</v>
       </c>
       <c r="AC14" s="1">
-        <v>-78.168500</v>
+        <v>-78.168499999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>68654.029271</v>
+        <v>68654.029271000007</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.070564</v>
+        <v>19.070564000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.525000</v>
+        <v>967.52499999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.528800</v>
+        <v>-75.528800000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>68664.148794</v>
+        <v>68664.148793999993</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.073375</v>
+        <v>19.073374999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.801000</v>
+        <v>974.80100000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.920900</v>
+        <v>-79.920900000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>68674.909003</v>
+        <v>68674.909002999993</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.076364</v>
+        <v>19.076364000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.932000</v>
+        <v>982.93200000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.238200</v>
+        <v>-91.238200000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>68685.893900</v>
+        <v>68685.893899999995</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.079415</v>
+        <v>19.079415000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.839000</v>
+        <v>992.83900000000006</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.680000</v>
+        <v>-108.68</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>68696.974030</v>
+        <v>68696.974029999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.082493</v>
+        <v>19.082492999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1001.150000</v>
+        <v>1001.15</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.112000</v>
+        <v>-124.11199999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>68707.996625</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.085555</v>
+        <v>19.085554999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.158000</v>
+        <v>-195.15799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>68719.648144</v>
+        <v>68719.648144000006</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.088791</v>
+        <v>19.088791000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1107.270000</v>
+        <v>1107.27</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.702000</v>
+        <v>-309.702</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>68730.360738</v>
+        <v>68730.360738000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.091767</v>
+        <v>19.091767000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.840000</v>
+        <v>1215.8399999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-488.887000</v>
+        <v>-488.887</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>68741.085237</v>
+        <v>68741.085237000007</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.094746</v>
+        <v>19.094746000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1337.370000</v>
+        <v>1337.37</v>
       </c>
       <c r="BV14" s="1">
-        <v>-684.619000</v>
+        <v>-684.61900000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>68752.112293</v>
+        <v>68752.112292999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.097809</v>
+        <v>19.097809000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.860000</v>
+        <v>1471.86</v>
       </c>
       <c r="CA14" s="1">
-        <v>-891.910000</v>
+        <v>-891.91</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>68764.222651</v>
+        <v>68764.222651000004</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.101173</v>
+        <v>19.101172999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1821.970000</v>
+        <v>1821.97</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1381.450000</v>
+        <v>-1381.45</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>68592.336522</v>
+        <v>68592.336521999998</v>
       </c>
       <c r="B15" s="1">
-        <v>19.053427</v>
+        <v>19.053426999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>897.324000</v>
+        <v>897.32399999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.440000</v>
+        <v>-202.44</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>68602.763455</v>
+        <v>68602.763454999993</v>
       </c>
       <c r="G15" s="1">
-        <v>19.056323</v>
+        <v>19.056322999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>916.219000</v>
+        <v>916.21900000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-172.063000</v>
+        <v>-172.06299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>68613.284101</v>
+        <v>68613.284100999997</v>
       </c>
       <c r="L15" s="1">
-        <v>19.059246</v>
+        <v>19.059246000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>940.741000</v>
+        <v>940.74099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-122.420000</v>
+        <v>-122.42</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>68623.539839</v>
+        <v>68623.539839000005</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.062094</v>
+        <v>19.062093999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>948.155000</v>
+        <v>948.15499999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.726000</v>
+        <v>-105.726</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>68633.771809</v>
+        <v>68633.771808999998</v>
       </c>
       <c r="V15" s="1">
         <v>19.064937</v>
       </c>
       <c r="W15" s="1">
-        <v>955.067000</v>
+        <v>955.06700000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.274900</v>
+        <v>-90.274900000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>68643.913509</v>
+        <v>68643.913509000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.067754</v>
+        <v>19.067754000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.713000</v>
+        <v>962.71299999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-78.107800</v>
+        <v>-78.107799999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>68654.303737</v>
+        <v>68654.303736999995</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.070640</v>
+        <v>19.070640000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.489000</v>
+        <v>967.48900000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.768500</v>
+        <v>-75.768500000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>68664.500954</v>
+        <v>68664.500954000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.073472</v>
+        <v>19.073471999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.776000</v>
+        <v>974.77599999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.940000</v>
+        <v>-79.94</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>68675.270587</v>
+        <v>68675.270587000006</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.076464</v>
+        <v>19.076464000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.928000</v>
+        <v>982.928</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.241800</v>
+        <v>-91.241799999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>68686.257006</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.079516</v>
+        <v>19.079516000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.839000</v>
+        <v>992.83900000000006</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.661000</v>
+        <v>-108.661</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>68697.692765</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.082692</v>
+        <v>19.082692000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1001.180000</v>
+        <v>1001.18</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.137000</v>
+        <v>-124.137</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>68708.718800</v>
+        <v>68708.718800000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.085755</v>
+        <v>19.085754999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1040.140000</v>
+        <v>1040.1400000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.146000</v>
+        <v>-195.14599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>68720.047920</v>
+        <v>68720.047919999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.088902</v>
+        <v>19.088902000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1107.270000</v>
+        <v>1107.27</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.713000</v>
+        <v>-309.71300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>68730.774434</v>
+        <v>68730.774434000006</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.091882</v>
+        <v>19.091881999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.860000</v>
+        <v>1215.8599999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-488.947000</v>
+        <v>-488.947</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>68741.498435</v>
+        <v>68741.498435000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.094861</v>
+        <v>19.094861000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1337.320000</v>
+        <v>1337.32</v>
       </c>
       <c r="BV15" s="1">
-        <v>-684.554000</v>
+        <v>-684.55399999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>68752.847364</v>
+        <v>68752.847364000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.098013</v>
+        <v>19.098013000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.990000</v>
+        <v>1471.99</v>
       </c>
       <c r="CA15" s="1">
-        <v>-891.895000</v>
+        <v>-891.89499999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>68764.740437</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.101317</v>
+        <v>19.101317000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1822.170000</v>
+        <v>1822.17</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1381.430000</v>
+        <v>-1381.43</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>68592.677271</v>
+        <v>68592.677270999993</v>
       </c>
       <c r="B16" s="1">
         <v>19.053521</v>
       </c>
       <c r="C16" s="1">
-        <v>897.219000</v>
+        <v>897.21900000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.507000</v>
+        <v>-202.50700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>68603.109627</v>
+        <v>68603.109626999998</v>
       </c>
       <c r="G16" s="1">
-        <v>19.056419</v>
+        <v>19.056419000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>915.987000</v>
+        <v>915.98699999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.529000</v>
+        <v>-171.529</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>68613.711612</v>
+        <v>68613.711611999999</v>
       </c>
       <c r="L16" s="1">
-        <v>19.059364</v>
+        <v>19.059363999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>940.787000</v>
+        <v>940.78700000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-122.315000</v>
+        <v>-122.315</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>68623.968878</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.062214</v>
+        <v>19.062214000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.163000</v>
+        <v>948.16300000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.794000</v>
+        <v>-105.794</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>68634.045633</v>
+        <v>68634.045633000002</v>
       </c>
       <c r="V16" s="1">
         <v>19.065013</v>
       </c>
       <c r="W16" s="1">
-        <v>955.051000</v>
+        <v>955.05100000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.280800</v>
+        <v>-90.280799999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>68644.265211</v>
+        <v>68644.265211000005</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.067851</v>
+        <v>19.067851000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.655000</v>
+        <v>962.65499999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-78.109700</v>
+        <v>-78.109700000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>68654.648423</v>
+        <v>68654.648423000006</v>
       </c>
       <c r="AF16" s="1">
         <v>19.070736</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.502000</v>
+        <v>967.50199999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.435900</v>
+        <v>-75.435900000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>68664.848170</v>
+        <v>68664.848169999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.073569</v>
+        <v>19.073568999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.792000</v>
+        <v>974.79200000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.941500</v>
+        <v>-79.941500000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>68675.630222</v>
+        <v>68675.630222000007</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.076564</v>
+        <v>19.076564000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.923000</v>
+        <v>982.923</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.238100</v>
+        <v>-91.238100000000003</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>68686.988603</v>
+        <v>68686.988603000005</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.079719</v>
+        <v>19.079719000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.826000</v>
+        <v>992.82600000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.683000</v>
+        <v>-108.68300000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>68698.069233</v>
+        <v>68698.069233000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.082797</v>
+        <v>19.082796999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.128000</v>
+        <v>-124.128</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>68709.082366</v>
+        <v>68709.082366000002</v>
       </c>
       <c r="BE16" s="1">
         <v>19.085856</v>
       </c>
       <c r="BF16" s="1">
-        <v>1040.120000</v>
+        <v>1040.1199999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.134000</v>
+        <v>-195.13399999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>68720.424415</v>
+        <v>68720.424415000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.089007</v>
+        <v>19.089006999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1107.320000</v>
+        <v>1107.32</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.700000</v>
+        <v>-309.7</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>68731.486658</v>
+        <v>68731.486657999994</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.092080</v>
+        <v>19.092079999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-488.953000</v>
+        <v>-488.95299999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>68742.217138</v>
+        <v>68742.217138000007</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.095060</v>
+        <v>19.09506</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.340000</v>
+        <v>1337.34</v>
       </c>
       <c r="BV16" s="1">
-        <v>-684.590000</v>
+        <v>-684.59</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>68752.957476</v>
+        <v>68752.957475999996</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.098044</v>
+        <v>19.098044000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.940000</v>
+        <v>1471.94</v>
       </c>
       <c r="CA16" s="1">
-        <v>-891.859000</v>
+        <v>-891.85900000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>68765.290005</v>
+        <v>68765.290005000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.101469</v>
+        <v>19.101469000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1822.670000</v>
+        <v>1822.67</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1382.170000</v>
+        <v>-1382.17</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>68593.105320</v>
+        <v>68593.105320000002</v>
       </c>
       <c r="B17" s="1">
-        <v>19.053640</v>
+        <v>19.053640000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>897.264000</v>
+        <v>897.26400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.509000</v>
+        <v>-202.50899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>68603.531754</v>
+        <v>68603.531753999996</v>
       </c>
       <c r="G17" s="1">
-        <v>19.056537</v>
+        <v>19.056536999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>916.449000</v>
+        <v>916.44899999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.967000</v>
+        <v>-171.96700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>68613.987387</v>
+        <v>68613.987387000001</v>
       </c>
       <c r="L17" s="1">
         <v>19.059441</v>
       </c>
       <c r="M17" s="1">
-        <v>940.869000</v>
+        <v>940.86900000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-122.326000</v>
+        <v>-122.32599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>68624.251102</v>
+        <v>68624.251101999995</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.062292</v>
+        <v>19.062291999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.200000</v>
+        <v>948.2</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.769000</v>
+        <v>-105.76900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>68634.388369</v>
+        <v>68634.388368999993</v>
       </c>
       <c r="V17" s="1">
-        <v>19.065108</v>
+        <v>19.065107999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>955.070000</v>
+        <v>955.07</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.304900</v>
+        <v>-90.304900000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>68644.610895</v>
+        <v>68644.610895000005</v>
       </c>
       <c r="AA17" s="1">
         <v>19.067947</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.669000</v>
+        <v>962.66899999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-78.157100</v>
+        <v>-78.1571</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>68654.991653</v>
+        <v>68654.991653000005</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.070831</v>
+        <v>19.070830999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.457000</v>
+        <v>967.45699999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.520100</v>
+        <v>-75.520099999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>68665.544909</v>
+        <v>68665.544909000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.073762</v>
+        <v>19.073761999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.813000</v>
+        <v>974.81299999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.945300</v>
+        <v>-79.945300000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>68676.357321</v>
+        <v>68676.357321000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.076766</v>
+        <v>19.076765999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.933000</v>
+        <v>982.93299999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.223100</v>
+        <v>-91.223100000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>68687.379915</v>
+        <v>68687.379914999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.079828</v>
+        <v>19.079827999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.855000</v>
+        <v>992.85500000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.677000</v>
+        <v>-108.67700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>68698.449660</v>
+        <v>68698.449659999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.082903</v>
+        <v>19.082903000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.150000</v>
+        <v>1001.15</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.134000</v>
+        <v>-124.134</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>68709.442957</v>
+        <v>68709.442957000007</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.085956</v>
+        <v>19.085955999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1040.140000</v>
+        <v>1040.1400000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.168000</v>
+        <v>-195.16800000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>68721.102450</v>
+        <v>68721.102450000006</v>
       </c>
       <c r="BJ17" s="1">
         <v>19.089195</v>
       </c>
       <c r="BK17" s="1">
-        <v>1107.290000</v>
+        <v>1107.29</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.697000</v>
+        <v>-309.697</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>68731.596768</v>
+        <v>68731.596768000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>19.092110</v>
+        <v>19.092110000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-488.936000</v>
+        <v>-488.93599999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>68742.327218</v>
+        <v>68742.327218000006</v>
       </c>
       <c r="BT17" s="1">
         <v>19.095091</v>
       </c>
       <c r="BU17" s="1">
-        <v>1337.430000</v>
+        <v>1337.43</v>
       </c>
       <c r="BV17" s="1">
-        <v>-684.598000</v>
+        <v>-684.59799999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>68753.390981</v>
+        <v>68753.390981000004</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.098164</v>
+        <v>19.098164000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.890000</v>
+        <v>1471.89</v>
       </c>
       <c r="CA17" s="1">
-        <v>-891.942000</v>
+        <v>-891.94200000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>68765.821219</v>
+        <v>68765.821219000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.101617</v>
+        <v>19.101617000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1821.850000</v>
+        <v>1821.85</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1381.620000</v>
+        <v>-1381.62</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>68593.377128</v>
+        <v>68593.377127999993</v>
       </c>
       <c r="B18" s="1">
-        <v>19.053716</v>
+        <v>19.053716000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>897.342000</v>
+        <v>897.34199999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.466000</v>
+        <v>-202.46600000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>68603.804560</v>
+        <v>68603.804560000004</v>
       </c>
       <c r="G18" s="1">
-        <v>19.056612</v>
+        <v>19.056612000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>916.841000</v>
+        <v>916.84100000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-172.200000</v>
+        <v>-172.2</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>68614.334626</v>
+        <v>68614.334625999996</v>
       </c>
       <c r="L18" s="1">
-        <v>19.059537</v>
+        <v>19.059536999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>940.808000</v>
+        <v>940.80799999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-122.214000</v>
+        <v>-122.214</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>68624.598798</v>
+        <v>68624.598798000006</v>
       </c>
       <c r="Q18" s="1">
         <v>19.062389</v>
       </c>
       <c r="R18" s="1">
-        <v>948.135000</v>
+        <v>948.13499999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.785000</v>
+        <v>-105.785</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>68634.733584</v>
+        <v>68634.733584000001</v>
       </c>
       <c r="V18" s="1">
-        <v>19.065204</v>
+        <v>19.065204000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>955.234000</v>
+        <v>955.23400000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.343200</v>
+        <v>-90.343199999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>68645.308755</v>
+        <v>68645.308755000005</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.068141</v>
+        <v>19.068141000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.694000</v>
+        <v>962.69399999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-78.089700</v>
+        <v>-78.089699999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>68655.679123</v>
+        <v>68655.679122999994</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.071022</v>
+        <v>19.071021999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.441000</v>
+        <v>967.44100000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.488500</v>
+        <v>-75.488500000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>68665.895736</v>
+        <v>68665.895736000006</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.073860</v>
+        <v>19.07386</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.783000</v>
+        <v>974.78300000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.917600</v>
+        <v>-79.917599999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>68676.735273</v>
+        <v>68676.735272999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.076871</v>
+        <v>19.076871000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.929000</v>
+        <v>982.92899999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.248600</v>
+        <v>-91.248599999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>68687.745467</v>
+        <v>68687.745467000001</v>
       </c>
       <c r="AU18" s="1">
         <v>19.079929</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.858000</v>
+        <v>992.85799999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.675000</v>
+        <v>-108.675</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>68699.116251</v>
+        <v>68699.116250999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>19.083088</v>
       </c>
       <c r="BA18" s="1">
-        <v>1001.180000</v>
+        <v>1001.18</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.112000</v>
+        <v>-124.11199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>68710.110574</v>
+        <v>68710.110574000006</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.086142</v>
+        <v>19.086141999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1040.140000</v>
+        <v>1040.1400000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.157000</v>
+        <v>-195.15700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>68721.212030</v>
+        <v>68721.212029999995</v>
       </c>
       <c r="BJ18" s="1">
         <v>19.089226</v>
       </c>
       <c r="BK18" s="1">
-        <v>1107.290000</v>
+        <v>1107.29</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.713000</v>
+        <v>-309.71300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>68732.015393</v>
+        <v>68732.015392999994</v>
       </c>
       <c r="BO18" s="1">
         <v>19.092226</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.810000</v>
+        <v>1215.81</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-488.924000</v>
+        <v>-488.92399999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>68742.767666</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.095213</v>
+        <v>19.095213000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1337.330000</v>
+        <v>1337.33</v>
       </c>
       <c r="BV18" s="1">
-        <v>-684.584000</v>
+        <v>-684.58399999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>68753.810132</v>
+        <v>68753.810131999999</v>
       </c>
       <c r="BY18" s="1">
         <v>19.098281</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.890000</v>
+        <v>1471.89</v>
       </c>
       <c r="CA18" s="1">
-        <v>-891.897000</v>
+        <v>-891.89700000000005</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>68766.340070</v>
+        <v>68766.340070000006</v>
       </c>
       <c r="CD18" s="1">
         <v>19.101761</v>
       </c>
       <c r="CE18" s="1">
-        <v>1821.310000</v>
+        <v>1821.31</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1382.480000</v>
+        <v>-1382.48</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>68593.720854</v>
+        <v>68593.720853999999</v>
       </c>
       <c r="B19" s="1">
         <v>19.053811</v>
       </c>
       <c r="C19" s="1">
-        <v>897.315000</v>
+        <v>897.31500000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.446000</v>
+        <v>-202.446</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>68604.149240</v>
+        <v>68604.149239999999</v>
       </c>
       <c r="G19" s="1">
         <v>19.056708</v>
       </c>
       <c r="H19" s="1">
-        <v>916.229000</v>
+        <v>916.22900000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.232000</v>
+        <v>-171.232</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>68614.678363</v>
+        <v>68614.678362999999</v>
       </c>
       <c r="L19" s="1">
-        <v>19.059633</v>
+        <v>19.059633000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>940.884000</v>
+        <v>940.88400000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-122.406000</v>
+        <v>-122.40600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>68624.968813</v>
+        <v>68624.968812999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.062491</v>
+        <v>19.062491000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.136000</v>
+        <v>948.13599999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.729000</v>
+        <v>-105.729</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>68635.421007</v>
+        <v>68635.421006999997</v>
       </c>
       <c r="V19" s="1">
-        <v>19.065395</v>
+        <v>19.065394999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>955.171000</v>
+        <v>955.17100000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.354200</v>
+        <v>-90.354200000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>68645.657442</v>
+        <v>68645.657441999996</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.068238</v>
+        <v>19.068238000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.753000</v>
+        <v>962.75300000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-78.092600</v>
+        <v>-78.092600000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>68656.022375</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.071117</v>
+        <v>19.071117000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.559000</v>
+        <v>967.55899999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.498200</v>
+        <v>-75.498199999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>68666.240932</v>
+        <v>68666.240932000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.073956</v>
+        <v>19.073955999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.786000</v>
+        <v>974.78599999999994</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.935500</v>
+        <v>-79.935500000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>68677.094906</v>
+        <v>68677.094905999998</v>
       </c>
       <c r="AP19" s="1">
         <v>19.076971</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.923000</v>
+        <v>982.923</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.250500</v>
+        <v>-91.250500000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>68688.407164</v>
+        <v>68688.407164000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.080113</v>
+        <v>19.080113000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.848000</v>
+        <v>992.84799999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.692000</v>
+        <v>-108.69199999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>68699.531930</v>
+        <v>68699.531929999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.083203</v>
+        <v>19.083203000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.121000</v>
+        <v>-124.121</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>68710.560444</v>
+        <v>68710.560444000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.086267</v>
+        <v>19.086266999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1040.130000</v>
+        <v>1040.1300000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.142000</v>
+        <v>-195.142</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>68721.572125</v>
+        <v>68721.572125000006</v>
       </c>
       <c r="BJ19" s="1">
         <v>19.089326</v>
       </c>
       <c r="BK19" s="1">
-        <v>1107.300000</v>
+        <v>1107.3</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.712000</v>
+        <v>-309.71199999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>68732.414176</v>
+        <v>68732.414176000006</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.092337</v>
+        <v>19.092337000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.790000</v>
+        <v>1215.79</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-488.966000</v>
+        <v>-488.96600000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>68743.195217</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.095332</v>
+        <v>19.095331999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1337.350000</v>
+        <v>1337.35</v>
       </c>
       <c r="BV19" s="1">
-        <v>-684.617000</v>
+        <v>-684.61699999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>68754.230708</v>
+        <v>68754.230708000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.098397</v>
+        <v>19.098396999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.880000</v>
+        <v>1471.88</v>
       </c>
       <c r="CA19" s="1">
-        <v>-891.900000</v>
+        <v>-891.9</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>68766.857857</v>
+        <v>68766.857856999995</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.101905</v>
+        <v>19.101904999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1822.310000</v>
+        <v>1822.31</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1383.030000</v>
+        <v>-1383.03</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>68594.060151</v>
+        <v>68594.060150999998</v>
       </c>
       <c r="B20" s="1">
-        <v>19.053906</v>
+        <v>19.053906000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>897.212000</v>
+        <v>897.21199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.608000</v>
+        <v>-202.608</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>68604.493000</v>
+        <v>68604.493000000002</v>
       </c>
       <c r="G20" s="1">
         <v>19.056804</v>
       </c>
       <c r="H20" s="1">
-        <v>916.290000</v>
+        <v>916.29</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.770000</v>
+        <v>-171.77</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>68615.374698</v>
       </c>
       <c r="L20" s="1">
-        <v>19.059826</v>
+        <v>19.059826000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>940.944000</v>
+        <v>940.94399999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-122.350000</v>
+        <v>-122.35</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>68625.645853</v>
+        <v>68625.645852999995</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.062679</v>
+        <v>19.062678999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>948.167000</v>
+        <v>948.16700000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.711000</v>
+        <v>-105.711</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>68635.763292</v>
+        <v>68635.763292000003</v>
       </c>
       <c r="V20" s="1">
-        <v>19.065490</v>
+        <v>19.06549</v>
       </c>
       <c r="W20" s="1">
-        <v>955.176000</v>
+        <v>955.17600000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.250200</v>
+        <v>-90.250200000000007</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>68646.004642</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.068335</v>
+        <v>19.068335000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.646000</v>
+        <v>962.64599999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-78.079300</v>
+        <v>-78.079300000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>68656.367059</v>
+        <v>68656.367058999997</v>
       </c>
       <c r="AF20" s="1">
         <v>19.071213</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.613000</v>
+        <v>967.61300000000006</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.525100</v>
+        <v>-75.525099999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>68666.902591</v>
+        <v>68666.902591000005</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.074140</v>
+        <v>19.07414</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.788000</v>
+        <v>974.78800000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.934300</v>
+        <v>-79.934299999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>68677.767447</v>
+        <v>68677.767447000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.077158</v>
+        <v>19.077158000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.942000</v>
+        <v>982.94200000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.251000</v>
+        <v>-91.251000000000005</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>68688.836665</v>
+        <v>68688.836664999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.080232</v>
+        <v>19.080231999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.862000</v>
+        <v>992.86199999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.671000</v>
+        <v>-108.67100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>68699.905882</v>
+        <v>68699.905882000006</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.083307</v>
+        <v>19.083307000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1001.170000</v>
+        <v>1001.17</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.128000</v>
+        <v>-124.128</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>68710.922028</v>
+        <v>68710.922028000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.086367</v>
+        <v>19.086366999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1040.120000</v>
+        <v>1040.1199999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.150000</v>
+        <v>-195.15</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>68721.947633</v>
+        <v>68721.947633000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.089430</v>
+        <v>19.08943</v>
       </c>
       <c r="BK20" s="1">
-        <v>1107.290000</v>
+        <v>1107.29</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.680000</v>
+        <v>-309.68</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>68732.833827</v>
+        <v>68732.833826999995</v>
       </c>
       <c r="BO20" s="1">
         <v>19.092454</v>
       </c>
       <c r="BP20" s="1">
-        <v>1215.800000</v>
+        <v>1215.8</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-488.938000</v>
+        <v>-488.93799999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>68743.617810</v>
+        <v>68743.617809999996</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.095449</v>
+        <v>19.095448999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1337.350000</v>
+        <v>1337.35</v>
       </c>
       <c r="BV20" s="1">
-        <v>-684.579000</v>
+        <v>-684.57899999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>68754.660244</v>
+        <v>68754.660243999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.098517</v>
+        <v>19.098517000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.920000</v>
+        <v>1471.92</v>
       </c>
       <c r="CA20" s="1">
-        <v>-891.898000</v>
+        <v>-891.89800000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>68767.373697</v>
+        <v>68767.373697000003</v>
       </c>
       <c r="CD20" s="1">
         <v>19.102048</v>
       </c>
       <c r="CE20" s="1">
-        <v>1822.780000</v>
+        <v>1822.78</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1381.780000</v>
+        <v>-1381.78</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>68594.741621</v>
+        <v>68594.741620999994</v>
       </c>
       <c r="B21" s="1">
         <v>19.054095</v>
       </c>
       <c r="C21" s="1">
-        <v>897.222000</v>
+        <v>897.22199999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.522000</v>
+        <v>-202.52199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>68605.181416</v>
+        <v>68605.181416000007</v>
       </c>
       <c r="G21" s="1">
-        <v>19.056995</v>
+        <v>19.056995000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>916.598000</v>
+        <v>916.59799999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.732000</v>
+        <v>-171.732</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>68615.723386</v>
+        <v>68615.723385999998</v>
       </c>
       <c r="L21" s="1">
-        <v>19.059923</v>
+        <v>19.059923000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>940.910000</v>
+        <v>940.91</v>
       </c>
       <c r="N21" s="1">
-        <v>-122.300000</v>
+        <v>-122.3</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>68625.992596</v>
+        <v>68625.992595999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.062776</v>
+        <v>19.062775999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>948.165000</v>
+        <v>948.16499999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.745000</v>
+        <v>-105.745</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>68636.105487</v>
+        <v>68636.105486999993</v>
       </c>
       <c r="V21" s="1">
-        <v>19.065585</v>
+        <v>19.065584999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.091000</v>
+        <v>955.09100000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.290300</v>
+        <v>-90.290300000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>68646.664816</v>
+        <v>68646.664816000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.068518</v>
+        <v>19.068518000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.651000</v>
+        <v>962.65099999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-78.087400</v>
+        <v>-78.087400000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>68657.021780</v>
+        <v>68657.021779999995</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.071395</v>
+        <v>19.071394999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.424000</v>
+        <v>967.42399999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.410500</v>
+        <v>-75.410499999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>68667.288470</v>
+        <v>68667.28847</v>
       </c>
       <c r="AK21" s="1">
         <v>19.074247</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.798000</v>
+        <v>974.798</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.965800</v>
+        <v>-79.965800000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>68678.185575</v>
+        <v>68678.185574999996</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.077274</v>
+        <v>19.077273999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.918000</v>
+        <v>982.91800000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.240800</v>
+        <v>-91.240799999999993</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>68689.203240</v>
+        <v>68689.203240000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.080334</v>
+        <v>19.080334000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.823000</v>
+        <v>992.82299999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.686000</v>
+        <v>-108.68600000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>68700.284857</v>
+        <v>68700.284857000006</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.083412</v>
+        <v>19.083411999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1001.150000</v>
+        <v>1001.15</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.130000</v>
+        <v>-124.13</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>68711.281131</v>
+        <v>68711.281130999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.086467</v>
+        <v>19.086466999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1040.130000</v>
+        <v>1040.1300000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.147000</v>
+        <v>-195.14699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>68722.365265</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.089546</v>
+        <v>19.089545999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1107.300000</v>
+        <v>1107.3</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.733000</v>
+        <v>-309.733</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>68733.234590</v>
+        <v>68733.234589999993</v>
       </c>
       <c r="BO21" s="1">
         <v>19.092565</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-488.929000</v>
+        <v>-488.92899999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>68744.036432</v>
+        <v>68744.036431999994</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.095566</v>
+        <v>19.095566000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1337.390000</v>
+        <v>1337.39</v>
       </c>
       <c r="BV21" s="1">
-        <v>-684.615000</v>
+        <v>-684.61500000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>68755.074897</v>
+        <v>68755.074896999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.098632</v>
+        <v>19.098631999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.800000</v>
+        <v>1471.8</v>
       </c>
       <c r="CA21" s="1">
-        <v>-891.844000</v>
+        <v>-891.84400000000005</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>68767.892540</v>
+        <v>68767.892540000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.102192</v>
+        <v>19.102191999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1821.480000</v>
+        <v>1821.48</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1381.540000</v>
+        <v>-1381.54</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>68595.085349</v>
+        <v>68595.085349000001</v>
       </c>
       <c r="B22" s="1">
-        <v>19.054190</v>
+        <v>19.054189999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>897.264000</v>
+        <v>897.26400000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.563000</v>
+        <v>-202.56299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>68605.529606</v>
+        <v>68605.529605999996</v>
       </c>
       <c r="G22" s="1">
-        <v>19.057092</v>
+        <v>19.057092000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>915.570000</v>
+        <v>915.57</v>
       </c>
       <c r="I22" s="1">
-        <v>-172.105000</v>
+        <v>-172.10499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>68616.070121</v>
+        <v>68616.070120999997</v>
       </c>
       <c r="L22" s="1">
         <v>19.060019</v>
       </c>
       <c r="M22" s="1">
-        <v>940.995000</v>
+        <v>940.995</v>
       </c>
       <c r="N22" s="1">
-        <v>-122.347000</v>
+        <v>-122.34699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>68626.652235</v>
+        <v>68626.652235000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.062959</v>
+        <v>19.062958999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>948.169000</v>
+        <v>948.16899999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.773000</v>
+        <v>-105.773</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>68636.754255</v>
+        <v>68636.754255000007</v>
       </c>
       <c r="V22" s="1">
-        <v>19.065765</v>
+        <v>19.065764999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>955.240000</v>
+        <v>955.24</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.432600</v>
+        <v>-90.432599999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>68647.050705</v>
+        <v>68647.050705000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.068625</v>
+        <v>19.068625000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.686000</v>
+        <v>962.68600000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-78.089000</v>
+        <v>-78.088999999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>68657.398243</v>
+        <v>68657.398243000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.071500</v>
+        <v>19.0715</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.546000</v>
+        <v>967.54600000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.641400</v>
+        <v>-75.641400000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>68667.637158</v>
+        <v>68667.637157999998</v>
       </c>
       <c r="AK22" s="1">
         <v>19.074344</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.786000</v>
+        <v>974.78599999999994</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.948600</v>
+        <v>-79.948599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>68678.555101</v>
+        <v>68678.555101000005</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.077376</v>
+        <v>19.077376000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.935000</v>
+        <v>982.93499999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.233400</v>
+        <v>-91.233400000000003</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>68689.568265</v>
+        <v>68689.568264999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.080436</v>
+        <v>19.080435999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.834000</v>
+        <v>992.83399999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.694000</v>
+        <v>-108.694</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>68700.704442</v>
+        <v>68700.704442000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.083529</v>
+        <v>19.083528999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.170000</v>
+        <v>1001.17</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.129000</v>
+        <v>-124.129</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>68711.700252</v>
+        <v>68711.700251999995</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.086583</v>
+        <v>19.086583000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1040.140000</v>
+        <v>1040.1400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.143000</v>
+        <v>-195.143</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>68722.699036</v>
+        <v>68722.699036000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.089639</v>
+        <v>19.089638999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1107.300000</v>
+        <v>1107.3</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.696000</v>
+        <v>-309.69600000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>68733.656653</v>
+        <v>68733.656652999998</v>
       </c>
       <c r="BO22" s="1">
         <v>19.092682</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-488.930000</v>
+        <v>-488.93</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>68744.461007</v>
+        <v>68744.461007000005</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.095684</v>
+        <v>19.095683999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1337.370000</v>
+        <v>1337.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-684.608000</v>
+        <v>-684.60799999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>68755.523778</v>
+        <v>68755.523778000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.098757</v>
+        <v>19.098756999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.940000</v>
+        <v>1471.94</v>
       </c>
       <c r="CA22" s="1">
-        <v>-891.992000</v>
+        <v>-891.99199999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>68768.409839</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.102336</v>
+        <v>19.102336000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1821.460000</v>
+        <v>1821.46</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1381.550000</v>
+        <v>-1381.55</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>68595.428121</v>
+        <v>68595.428121000004</v>
       </c>
       <c r="B23" s="1">
-        <v>19.054286</v>
+        <v>19.054286000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>897.245000</v>
+        <v>897.245</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.497000</v>
+        <v>-202.49700000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>68605.877831</v>
+        <v>68605.877831000005</v>
       </c>
       <c r="G23" s="1">
         <v>19.057188</v>
       </c>
       <c r="H23" s="1">
-        <v>916.144000</v>
+        <v>916.14400000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.946000</v>
+        <v>-171.946</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>68616.724808</v>
+        <v>68616.724807999999</v>
       </c>
       <c r="L23" s="1">
-        <v>19.060201</v>
+        <v>19.060200999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>940.815000</v>
+        <v>940.81500000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-122.270000</v>
+        <v>-122.27</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>68627.038618</v>
+        <v>68627.038618000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.063066</v>
+        <v>19.063065999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>948.113000</v>
+        <v>948.11300000000006</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.775000</v>
+        <v>-105.77500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>68637.138653</v>
+        <v>68637.138653000002</v>
       </c>
       <c r="V23" s="1">
-        <v>19.065872</v>
+        <v>19.065871999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>955.245000</v>
+        <v>955.245</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.384400</v>
+        <v>-90.384399999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>68647.400384</v>
+        <v>68647.400383999993</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.068722</v>
+        <v>19.068722000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.652000</v>
+        <v>962.65200000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-78.024000</v>
+        <v>-78.024000000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>68657.738995</v>
+        <v>68657.738995000007</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.071594</v>
+        <v>19.071594000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.506000</v>
+        <v>967.50599999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.596000</v>
+        <v>-75.596000000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>68667.984852</v>
+        <v>68667.984851999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.074440</v>
+        <v>19.074439999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.821000</v>
+        <v>974.82100000000003</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.934300</v>
+        <v>-79.934299999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>68678.973222</v>
+        <v>68678.973222000001</v>
       </c>
       <c r="AP23" s="1">
         <v>19.077493</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.925000</v>
+        <v>982.92499999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.247800</v>
+        <v>-91.247799999999998</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>68689.986887</v>
+        <v>68689.986887000006</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.080552</v>
+        <v>19.080552000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.845000</v>
+        <v>992.84500000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.696000</v>
+        <v>-108.696</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>68701.003529</v>
+        <v>68701.003528999994</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.083612</v>
+        <v>19.083611999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.170000</v>
+        <v>1001.17</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.139000</v>
+        <v>-124.139</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>68712.005320</v>
+        <v>68712.005319999997</v>
       </c>
       <c r="BE23" s="1">
         <v>19.086668</v>
       </c>
       <c r="BF23" s="1">
-        <v>1040.140000</v>
+        <v>1040.1400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.167000</v>
+        <v>-195.167</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>68723.098315</v>
+        <v>68723.098314999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.089750</v>
+        <v>19.089749999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1107.310000</v>
+        <v>1107.31</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.714000</v>
+        <v>-309.714</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>68734.050974</v>
+        <v>68734.050973999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.092792</v>
+        <v>19.092791999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1215.840000</v>
+        <v>1215.8399999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-488.955000</v>
+        <v>-488.95499999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>68744.876160</v>
+        <v>68744.87616</v>
       </c>
       <c r="BT23" s="1">
         <v>19.095799</v>
       </c>
       <c r="BU23" s="1">
-        <v>1337.350000</v>
+        <v>1337.35</v>
       </c>
       <c r="BV23" s="1">
-        <v>-684.567000</v>
+        <v>-684.56700000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>68755.944411</v>
+        <v>68755.944411000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.098873</v>
+        <v>19.098873000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.950000</v>
+        <v>1471.95</v>
       </c>
       <c r="CA23" s="1">
-        <v>-891.881000</v>
+        <v>-891.88099999999997</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>68768.960434</v>
+        <v>68768.960433999993</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.102489</v>
+        <v>19.102488999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1822.090000</v>
+        <v>1822.09</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1381.490000</v>
+        <v>-1381.49</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>68596.070912</v>
+        <v>68596.070911999996</v>
       </c>
       <c r="B24" s="1">
-        <v>19.054464</v>
+        <v>19.054463999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>897.245000</v>
+        <v>897.245</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.515000</v>
+        <v>-202.51499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>68606.538471</v>
+        <v>68606.538471000007</v>
       </c>
       <c r="G24" s="1">
-        <v>19.057372</v>
+        <v>19.057372000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>915.791000</v>
+        <v>915.79100000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-172.075000</v>
+        <v>-172.07499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>68617.107223</v>
+        <v>68617.107222999999</v>
       </c>
       <c r="L24" s="1">
-        <v>19.060308</v>
+        <v>19.060307999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>940.946000</v>
+        <v>940.94600000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-122.227000</v>
+        <v>-122.227</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>68627.387307</v>
+        <v>68627.387306999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.063163</v>
+        <v>19.063162999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.118000</v>
+        <v>948.11800000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.718000</v>
+        <v>-105.718</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>68637.476924</v>
+        <v>68637.476924000002</v>
       </c>
       <c r="V24" s="1">
         <v>19.065966</v>
       </c>
       <c r="W24" s="1">
-        <v>955.192000</v>
+        <v>955.19200000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.101900</v>
+        <v>-90.101900000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>68647.748606</v>
+        <v>68647.748605999994</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.068819</v>
+        <v>19.068819000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.633000</v>
+        <v>962.63300000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-78.034700</v>
+        <v>-78.034700000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>68658.086721</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.071691</v>
+        <v>19.071691000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.482000</v>
+        <v>967.48199999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.587000</v>
+        <v>-75.587000000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>68668.404468</v>
+        <v>68668.404467999993</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.074557</v>
+        <v>19.074556999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.790000</v>
+        <v>974.79</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.938800</v>
+        <v>-79.938800000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>68679.276951</v>
+        <v>68679.276951000007</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.077577</v>
+        <v>19.077577000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.918000</v>
+        <v>982.91800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.241000</v>
+        <v>-91.241</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>68690.297384</v>
+        <v>68690.297384000005</v>
       </c>
       <c r="AU24" s="1">
         <v>19.080638</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.822000</v>
+        <v>992.822</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.656000</v>
+        <v>-108.65600000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>68701.362632</v>
+        <v>68701.362632000004</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.083712</v>
+        <v>19.083711999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1001.180000</v>
+        <v>1001.18</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.123000</v>
+        <v>-124.123</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>68712.397129</v>
+        <v>68712.397129000004</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.086777</v>
+        <v>19.086777000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1040.150000</v>
+        <v>1040.1500000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.159000</v>
+        <v>-195.15899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>68723.473062</v>
+        <v>68723.473062000005</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.089854</v>
+        <v>19.089853999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1107.300000</v>
+        <v>1107.3</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.716000</v>
+        <v>-309.71600000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>68734.472088</v>
+        <v>68734.472087999995</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.092909</v>
+        <v>19.092908999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1215.790000</v>
+        <v>1215.79</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-488.958000</v>
+        <v>-488.95800000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>68745.306688</v>
+        <v>68745.306687999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.095919</v>
+        <v>19.095918999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.350000</v>
+        <v>1337.35</v>
       </c>
       <c r="BV24" s="1">
-        <v>-684.582000</v>
+        <v>-684.58199999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>68756.366992</v>
+        <v>68756.366991999996</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.098991</v>
+        <v>19.098991000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.850000</v>
+        <v>1471.85</v>
       </c>
       <c r="CA24" s="1">
-        <v>-891.799000</v>
+        <v>-891.79899999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>68769.492606</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.102637</v>
+        <v>19.102637000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1820.990000</v>
+        <v>1820.99</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1381.790000</v>
+        <v>-1381.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>68596.453810</v>
+        <v>68596.453810000006</v>
       </c>
       <c r="B25" s="1">
-        <v>19.054571</v>
+        <v>19.054570999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>897.264000</v>
+        <v>897.26400000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.384000</v>
+        <v>-202.38399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>68606.914933</v>
+        <v>68606.914932999993</v>
       </c>
       <c r="G25" s="1">
-        <v>19.057476</v>
+        <v>19.057476000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>915.596000</v>
+        <v>915.596</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.876000</v>
+        <v>-171.876</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>68617.452935</v>
+        <v>68617.452934999994</v>
       </c>
       <c r="L25" s="1">
-        <v>19.060404</v>
+        <v>19.060403999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>940.870000</v>
+        <v>940.87</v>
       </c>
       <c r="N25" s="1">
-        <v>-122.327000</v>
+        <v>-122.327</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>68627.736521</v>
+        <v>68627.736520999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.063260</v>
+        <v>19.06326</v>
       </c>
       <c r="R25" s="1">
-        <v>948.136000</v>
+        <v>948.13599999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.716000</v>
+        <v>-105.71599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>68637.824620</v>
+        <v>68637.824619999999</v>
       </c>
       <c r="V25" s="1">
-        <v>19.066062</v>
+        <v>19.066061999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>955.137000</v>
+        <v>955.13699999999994</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.213600</v>
+        <v>-90.2136</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>68648.160752</v>
+        <v>68648.160751999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.068934</v>
+        <v>19.068933999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.695000</v>
+        <v>962.69500000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-78.125400</v>
+        <v>-78.125399999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>68658.499362</v>
+        <v>68658.499362000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.071805</v>
+        <v>19.071805000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.552000</v>
+        <v>967.55200000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.630300</v>
+        <v>-75.630300000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>68668.687219</v>
+        <v>68668.687218999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.074635</v>
+        <v>19.074635000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.808000</v>
+        <v>974.80799999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.940900</v>
+        <v>-79.940899999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>68679.637861</v>
+        <v>68679.637860999996</v>
       </c>
       <c r="AP25" s="1">
-        <v>19.077677</v>
+        <v>19.077677000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.927000</v>
+        <v>982.92700000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.239400</v>
+        <v>-91.239400000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>68690.663432</v>
+        <v>68690.663432000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.080740</v>
+        <v>19.080739999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.849000</v>
+        <v>992.84900000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.683000</v>
+        <v>-108.68300000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>68701.720776</v>
+        <v>68701.720776000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.083811</v>
+        <v>19.083811000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.123000</v>
+        <v>-124.123</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>68713.038456</v>
+        <v>68713.038455999995</v>
       </c>
       <c r="BE25" s="1">
         <v>19.086955</v>
       </c>
       <c r="BF25" s="1">
-        <v>1040.130000</v>
+        <v>1040.1300000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.157000</v>
+        <v>-195.15700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>68724.223110</v>
+        <v>68724.223110000006</v>
       </c>
       <c r="BJ25" s="1">
         <v>19.090062</v>
       </c>
       <c r="BK25" s="1">
-        <v>1107.300000</v>
+        <v>1107.3</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.698000</v>
+        <v>-309.69799999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>68734.867388</v>
+        <v>68734.867387999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.093019</v>
+        <v>19.093019000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1215.820000</v>
+        <v>1215.82</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-488.930000</v>
+        <v>-488.93</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>68745.736719</v>
+        <v>68745.736718999993</v>
       </c>
       <c r="BT25" s="1">
         <v>19.096038</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.330000</v>
+        <v>1337.33</v>
       </c>
       <c r="BV25" s="1">
-        <v>-684.601000</v>
+        <v>-684.601</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>68756.813870</v>
+        <v>68756.813869999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.099115</v>
+        <v>19.099115000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.860000</v>
+        <v>1471.86</v>
       </c>
       <c r="CA25" s="1">
-        <v>-891.897000</v>
+        <v>-891.89700000000005</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>68770.313022</v>
+        <v>68770.313022000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.102865</v>
+        <v>19.102865000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1821.620000</v>
+        <v>1821.62</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1383.140000</v>
+        <v>-1383.14</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>68596.795059</v>
+        <v>68596.795058999996</v>
       </c>
       <c r="B26" s="1">
         <v>19.054665</v>
       </c>
       <c r="C26" s="1">
-        <v>897.185000</v>
+        <v>897.18499999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.334000</v>
+        <v>-202.334</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>68607.257668</v>
+        <v>68607.257668000006</v>
       </c>
       <c r="G26" s="1">
         <v>19.057572</v>
       </c>
       <c r="H26" s="1">
-        <v>915.960000</v>
+        <v>915.96</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.722000</v>
+        <v>-171.72200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>68617.800136</v>
+        <v>68617.800136000005</v>
       </c>
       <c r="L26" s="1">
-        <v>19.060500</v>
+        <v>19.060500000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>940.893000</v>
+        <v>940.89300000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-122.288000</v>
+        <v>-122.288</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>68628.156141</v>
+        <v>68628.156140999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.063377</v>
+        <v>19.063376999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.159000</v>
+        <v>948.15899999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.751000</v>
+        <v>-105.751</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>68638.233325</v>
+        <v>68638.233324999994</v>
       </c>
       <c r="V26" s="1">
-        <v>19.066176</v>
+        <v>19.066175999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.189000</v>
+        <v>955.18899999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.306800</v>
+        <v>-90.306799999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>68648.456894</v>
+        <v>68648.456894000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.069016</v>
+        <v>19.069016000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.686000</v>
+        <v>962.68600000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-78.002700</v>
+        <v>-78.002700000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>68658.795473</v>
+        <v>68658.795473000006</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.071888</v>
+        <v>19.071888000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.471000</v>
+        <v>967.471</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.591600</v>
+        <v>-75.5916</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>68669.035875</v>
+        <v>68669.035875000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.074732</v>
+        <v>19.074732000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.786000</v>
+        <v>974.78599999999994</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.940600</v>
+        <v>-79.940600000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>68679.998950</v>
+        <v>68679.998949999994</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.077777</v>
+        <v>19.077777000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.923000</v>
+        <v>982.923</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.231600</v>
+        <v>-91.2316</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>68691.026197</v>
+        <v>68691.026196999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.080841</v>
+        <v>19.080840999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.847000</v>
+        <v>992.84699999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.669000</v>
+        <v>-108.669</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>68702.438492</v>
+        <v>68702.438492000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>19.084011</v>
       </c>
       <c r="BA26" s="1">
-        <v>1001.160000</v>
+        <v>1001.16</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.127000</v>
+        <v>-124.127</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>68713.476922</v>
+        <v>68713.476922000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.087077</v>
+        <v>19.087077000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1040.130000</v>
+        <v>1040.1300000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.164000</v>
+        <v>-195.16399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>68724.597227</v>
+        <v>68724.597227000006</v>
       </c>
       <c r="BJ26" s="1">
         <v>19.090166</v>
       </c>
       <c r="BK26" s="1">
-        <v>1107.290000</v>
+        <v>1107.29</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.715000</v>
+        <v>-309.71499999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>68735.287997</v>
+        <v>68735.287997000007</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.093136</v>
+        <v>19.093136000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.800000</v>
+        <v>1215.8</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-488.961000</v>
+        <v>-488.96100000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>68746.147405</v>
+        <v>68746.147404999996</v>
       </c>
       <c r="BT26" s="1">
         <v>19.096152</v>
       </c>
       <c r="BU26" s="1">
-        <v>1337.330000</v>
+        <v>1337.33</v>
       </c>
       <c r="BV26" s="1">
-        <v>-684.624000</v>
+        <v>-684.62400000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>68757.554895</v>
+        <v>68757.554894999994</v>
       </c>
       <c r="BY26" s="1">
         <v>19.099321</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.920000</v>
+        <v>1471.92</v>
       </c>
       <c r="CA26" s="1">
-        <v>-891.903000</v>
+        <v>-891.90300000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>68770.528749</v>
+        <v>68770.528749000005</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.102925</v>
+        <v>19.102924999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1822.810000</v>
+        <v>1822.81</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1382.280000</v>
+        <v>-1382.28</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>